--- a/BOM_AS5600.xlsx
+++ b/BOM_AS5600.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aai\Documents\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Product</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ST2103SD2612</t>
   </si>
   <si>
-    <t>https://sharvielectronics.com/product/30pf-0-03nf-50v-capacitor-5-tolerance-cc0402jrnpo9bn300-0402-package/</t>
-  </si>
-  <si>
     <t>Capacitor 10u</t>
   </si>
   <si>
@@ -95,24 +92,36 @@
     <t>https://sharvielectronics.com/product/22uf-22000nf-10v-capacitor-%c2%b110-tolerance-cc0805kkx7r6bb226-0805-package/</t>
   </si>
   <si>
+    <t>Capacitor 1u</t>
+  </si>
+  <si>
     <t>ST2103SD2657</t>
   </si>
   <si>
     <t>https://sharvielectronics.com/product/1000nf-1uf-50v-ceramic-capacitor-%c2%b110-tolerance-0805x105k500ct-0805-package/</t>
   </si>
   <si>
+    <t>Capacitor 10n</t>
+  </si>
+  <si>
     <t>ST2103SD2323</t>
   </si>
   <si>
     <t>https://sharvielectronics.com/product/0-01uf-10nf-50v-capacitor-%c2%b110-tolerance-cc1206krx7r9bb103-1206-package/</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
     <t>ST2103SD2647</t>
   </si>
   <si>
     <t>https://sharvielectronics.com/product/hq27-2101ubgc-dark-green-smd-led-right-angle-side-view-0603-package/</t>
   </si>
   <si>
+    <t>Ferrite Bead</t>
+  </si>
+  <si>
     <t>https://sharvielectronics.com/product/600%cf%89-100mhz-600ma-%c2%b125-ferrite-bead-ebms321609a601-1206-package/</t>
   </si>
   <si>
@@ -122,22 +131,25 @@
     <t>https://sharvielectronics.com/product/6x1-6pin-male-square-straight-header-connector-11mm-height-2-54mm-pitch/</t>
   </si>
   <si>
+    <t>Header Pin - Male</t>
+  </si>
+  <si>
     <t>ST2136CO8037</t>
   </si>
   <si>
+    <t>Header Pin - Female</t>
+  </si>
+  <si>
     <t>https://robu.in/product/2-54mm-1x40-pin-female-single-row-header-strip-pack-of-10/</t>
   </si>
   <si>
     <t>Robu</t>
   </si>
   <si>
-    <t>2073-USB4105-GF-ATR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.in/en/products/detail/gct/USB4105-GF-A/11198510?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=19871386769&amp;gbraid=0AAAAADrbLliDZQ8AoTRRD1LC9iQjuX1r6&amp;gclid=Cj0KCQiAhtvMBhDBARIsAL26pjEWf6oUOU3qwe7ccPA9Wcpw5vk4I0ag0O6F_vcv2Gkn_nQT9gEKG3kaAg-_EALw_wcB</t>
-  </si>
-  <si>
-    <t>Digikey</t>
+    <t>USB Receptacle</t>
+  </si>
+  <si>
+    <t>Resistor 5.1k</t>
   </si>
   <si>
     <t>ST2009SD0557</t>
@@ -146,37 +158,49 @@
     <t>https://sharvielectronics.com/product/5-1k-ohm-1-10-watt-resistor-1-tolerance-rc0603fr-075k1l-0603-package/</t>
   </si>
   <si>
+    <t>Resistor 4.7k</t>
+  </si>
+  <si>
     <t>ST2009SD0509</t>
   </si>
   <si>
     <t>https://sharvielectronics.com/product/4-7k-ohm-1-4-watt-resistor-1-tolerance-rc1206fr-074k7l-1206-package/</t>
   </si>
   <si>
+    <t>Resistor 1.5k</t>
+  </si>
+  <si>
     <t>ST2009SD0483</t>
   </si>
   <si>
     <t>https://sharvielectronics.com/product/1-5k-ohm-1-4-watt-resistor-1-tolerance-1206w4f1501t5e-1206-package/</t>
   </si>
   <si>
+    <t>Resistor 1k</t>
+  </si>
+  <si>
     <t>ST2103SD2320</t>
   </si>
   <si>
-    <t>https://sharvielectronics.com/product/1-1k-ohm-1-4-watt-resistor-1-tolerance-rct061k1flf-1206-package/</t>
+    <t>Resistor 65R</t>
   </si>
   <si>
     <t>https://robu.in/product/68-ohm-1-4w-0603-surface-mount-chip-resistor-pack-of-100/?gad_source=1&amp;gad_campaignid=17427802703&amp;gbraid=0AAAAADvLFWfl8if6hvNMNUuoxmtibwOzA&amp;gclid=Cj0KCQiAhtvMBhDBARIsAL26pjEwiiUnFU4D1Jt7eKHSsbMiAzbA0RoDGSsaAOnFpupa8-OY6qCbzXMaAoBGEALw_wcB</t>
   </si>
   <si>
+    <t>Resistor 150R</t>
+  </si>
+  <si>
     <t>R241053</t>
   </si>
   <si>
     <t>https://robu.in/product/crcw0603150rfkeac-vishay-smd-chip-resistor-150-ohm-%C2%B1-1-100-mw-0603-1608-metric-thick-film-general-purpose/?gad_source=1&amp;gad_campaignid=17427802703&amp;gbraid=0AAAAADvLFWfl8if6hvNMNUuoxmtibwOzA&amp;gclid=Cj0KCQiAhtvMBhDBARIsAL26pjGVKY1zXPh2prDLn8qvld8bT9aANetpKXwiAbDHCgDGdO4mqb0FwoEaAlRZEALw_wcB</t>
   </si>
   <si>
-    <t>2223-TS09-63-25-R-260-SMT-TR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.in/en/products/detail/same-sky-formerly-cui-devices-/TS09-63-25-R-260-SMT-TR/15839097</t>
+    <t>TS09 Switch</t>
+  </si>
+  <si>
+    <t>AMS1117</t>
   </si>
   <si>
     <t>ST2009SD0350</t>
@@ -185,20 +209,47 @@
     <t>https://sharvielectronics.com/product/ams1117-3-3-3-3v-1a-voltage-regulator-ic-sot-223-package/</t>
   </si>
   <si>
+    <t>AS5600</t>
+  </si>
+  <si>
     <t>R182262</t>
   </si>
   <si>
     <t>https://robu.in/product/as5600-asom-ams-0360-soic-8-position-sensors-rohs/</t>
   </si>
   <si>
+    <t>Abracon Crystal</t>
+  </si>
+  <si>
     <t>https://robu.in/product/abl-8-000mhz-b2-crystal/?gad_source=1&amp;gad_campaignid=17427802703&amp;gbraid=0AAAAADvLFWfl8if6hvNMNUuoxmtibwOzA&amp;gclid=Cj0KCQiAhtvMBhDBARIsAL26pjESvUU9TUEjuIh-dRvK4Xns0Pp7WJ6f0EFYXF6RbOe5VKbKlLQKe48aAilwEALw_wcB</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Buy USB4745-03-A Electrical Connectors at Robu.in</t>
+  </si>
+  <si>
+    <t>R248958</t>
+  </si>
+  <si>
+    <t>R189785</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/ts-1145a-d-b-xkb-smd3-2x4-2x2-5mm-tactile-switches-rohs/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/ac0603fr-071kl-yageo-res-thick-film-0603-1k-ohm-1-0-1w1-10w-%c2%b1100ppm-c-pad-smd-t-r-automotive-aec-q200/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/0-1uf-100nf-25v-ceramic-capacitor-%c2%b110-tolerance-cc1206krx7r8bb104-1206-package/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +273,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -234,18 +291,31 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333E48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333E48"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -276,25 +346,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -317,7 +393,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Grayscale">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,34 +401,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="F8F8F8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="DDDDDD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="969696"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="808080"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4D4D4D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="919191"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -580,13 +656,13 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="24.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
@@ -596,569 +672,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>118.75</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <f>C2*D2</f>
         <v>118.75</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1.92</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>3.84</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1.92</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>2.72</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.72</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.72</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>2.15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.93</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>1.89</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>5.67</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>3.57</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>3.57</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>1.95</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6">
         <v>555698</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>70.95</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>70.95</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>210</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>0.85</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.79</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9">
         <v>573895</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.68</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>34</v>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>21.83</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>21.83</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>37</v>
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>15.72</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>6.75</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>166</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>34</v>
+      <c r="F22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="9">
         <v>1163700</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>66</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>34</v>
+      <c r="F23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="10">
         <f>SUM(D2:D23)</f>
-        <v>481.71999999999997</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <v>613.92000000000007</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1166,8 +1242,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2" display="https://robu.in/product/usb4745-03-a-gct-usb-sealed-connector-top-mount-usb-type-c-usb-3-2-receptacle-24-position/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM_AS5600.xlsx
+++ b/BOM_AS5600.xlsx
@@ -227,9 +227,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Buy USB4745-03-A Electrical Connectors at Robu.in</t>
-  </si>
-  <si>
     <t>R248958</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>https://sharvielectronics.com/product/0-1uf-100nf-25v-ceramic-capacitor-%c2%b110-tolerance-cc1206krx7r8bb104-1206-package/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/16-pin-c-type-usb-connector-smd-package/</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
@@ -760,7 +760,7 @@
         <v>9.6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>11</v>
@@ -963,23 +963,23 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>210</v>
+        <v>17.45</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>17.45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -1072,7 +1072,7 @@
         <v>0.19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>39</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>15.72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>39</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B24" s="10">
         <f>SUM(D2:D23)</f>
-        <v>613.92000000000007</v>
+        <v>421.37</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1242,9 +1242,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2" display="https://robu.in/product/usb4745-03-a-gct-usb-sealed-connector-top-mount-usb-type-c-usb-3-2-receptacle-24-position/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOM_AS5600.xlsx
+++ b/BOM_AS5600.xlsx
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,35 +273,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF333E48"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333E48"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -349,27 +347,27 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -655,14 +653,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="24.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
@@ -672,569 +670,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>118.75</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <f>C2*D2</f>
         <v>118.75</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>1.92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>3.84</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1.92</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>2.72</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>2.72</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>2.15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.93</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>1.89</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>5.67</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>3.57</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>3.57</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>1.95</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>555698</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>17.45</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>17.45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>0.85</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>0.93</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>2.79</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.93</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.19</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>573895</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.35</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.68</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>15.72</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>15.72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>6.75</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>166</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>1163700</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>66</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="3">
         <f>SUM(D2:D23)</f>
         <v>421.37</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
